--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -120,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,8 +140,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -149,6 +165,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,6 +179,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -163,7 +208,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,15 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,77 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +275,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -299,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,26 +508,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,11 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +577,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -590,31 +605,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1190,7 +1190,6 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3"/>
     </row>
   </sheetData>

--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
-    <sheet name="getInstanceSnapList" sheetId="31" r:id="rId2"/>
-    <sheet name="getCloudDiskSnapList" sheetId="32" r:id="rId3"/>
-    <sheet name="restorePoolSnap" sheetId="33" r:id="rId4"/>
-    <sheet name="deletePoolSnap" sheetId="34" r:id="rId5"/>
+    <sheet name="restorePoolSnap" sheetId="33" r:id="rId2"/>
+    <sheet name="deletePoolSnap" sheetId="34" r:id="rId3"/>
+    <sheet name="getInstanceSnapList" sheetId="31" r:id="rId4"/>
+    <sheet name="getCloudDiskSnapList" sheetId="32" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -57,18 +58,6 @@
     <t>查看业务池快照列表</t>
   </si>
   <si>
-    <t>查看云组件快照列表-缺少token</t>
-  </si>
-  <si>
-    <t>查看云组件快照列表</t>
-  </si>
-  <si>
-    <t>查看云硬盘快照列表-缺少token</t>
-  </si>
-  <si>
-    <t>查看云硬盘快照列表</t>
-  </si>
-  <si>
     <t>回滚业务池快照-缺少token</t>
   </si>
   <si>
@@ -113,6 +102,18 @@
         "ae50ef28-9f14-47ce-ba61-01beba2df7dc"
     ]
 }</t>
+  </si>
+  <si>
+    <t>查看云组件快照列表-缺少token</t>
+  </si>
+  <si>
+    <t>查看云组件快照列表</t>
+  </si>
+  <si>
+    <t>查看云硬盘快照列表-缺少token</t>
+  </si>
+  <si>
+    <t>查看云硬盘快照列表</t>
   </si>
 </sst>
 </file>
@@ -120,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,93 +141,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,9 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -276,9 +248,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,19 +300,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,31 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,109 +462,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,26 +509,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,23 +557,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,40 +606,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1201,13 +1202,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
@@ -1254,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1262,12 +1263,32 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="F3"/>
+      <c r="F4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1276,6 +1297,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -1316,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1336,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -1352,16 +1470,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
@@ -1393,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1408,40 +1526,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="54" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="54" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1449,98 +1547,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="deletePoolSnap" sheetId="34" r:id="rId3"/>
     <sheet name="getInstanceSnapList" sheetId="31" r:id="rId4"/>
     <sheet name="getCloudDiskSnapList" sheetId="32" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId6"/>
+    <sheet name="restoreInstanceSnap" sheetId="35" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>test_num</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>参数错误</t>
+  </si>
+  <si>
+    <t>003</t>
   </si>
   <si>
     <t>回滚业务池快照-成功</t>
@@ -114,6 +117,56 @@
   </si>
   <si>
     <t>查看云硬盘快照列表</t>
+  </si>
+  <si>
+    <t>回滚云组件快照-缺少token</t>
+  </si>
+  <si>
+    <t>回滚云组件快照-snapshot_name为空</t>
+  </si>
+  <si>
+    <t>{    "project_id":"577d21c9411744a4b619c8966f69ec18",
+    "volumes_name":[
+        "5c9380cd-7948-44d2-ba40-559a07535cb9"
+    ],
+    "snapshot_name":""
+}</t>
+  </si>
+  <si>
+    <t>回滚云组件快照-volume_name为空</t>
+  </si>
+  <si>
+    <t>{    "project_id":"577d21c9411744a4b619c8966f69ec18",
+    "volumes_name":[],
+    "snapshot_name":"SysAndPartDiskSnap"
+}</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>回滚云组件快照-project_id为空</t>
+  </si>
+  <si>
+    <t>{    "project_id":"",
+    "volumes_name":[],
+    "snapshot_name":"SysAndPartDiskSnap"
+}</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>回滚云组件快照-成功</t>
+  </si>
+  <si>
+    <t>{
+    "project_id":"577d21c9411744a4b619c8966f69ec18",
+    "volumes_name":[
+        "5c9380cd-7948-44d2-ba40-559a07535cb9"
+    ],
+    "snapshot_name":"SysAndPartDiskSnap"
+}</t>
   </si>
 </sst>
 </file>
@@ -121,8 +174,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -141,6 +194,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -148,10 +238,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,106 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +318,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -300,13 +353,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,19 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,139 +473,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,31 +562,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -550,6 +588,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,25 +625,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -606,16 +650,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,16 +677,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,10 +698,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,88 +722,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -848,7 +901,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1204,8 +1257,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1275,13 +1328,13 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1337,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1357,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -1375,10 +1428,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1434,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1454,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -1511,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1531,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -1550,14 +1603,131 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="108" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="121.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -191,6 +191,135 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,141 +331,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,25 +353,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,157 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,21 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -588,6 +573,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,44 +627,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -901,7 +901,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1257,7 +1257,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1605,8 +1605,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>test_num</t>
   </si>
@@ -133,6 +133,9 @@
 }</t>
   </si>
   <si>
+    <t>请求参数错误</t>
+  </si>
+  <si>
     <t>回滚云组件快照-volume_name为空</t>
   </si>
   <si>
@@ -148,7 +151,7 @@
     <t>回滚云组件快照-project_id为空</t>
   </si>
   <si>
-    <t>{    "project_id":"",
+    <t>{   "project_id":"",
     "volumes_name":[],
     "snapshot_name":"SysAndPartDiskSnap"
 }</t>
@@ -174,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,28 +198,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +257,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -240,6 +298,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,14 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -268,75 +340,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,181 +356,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +584,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,22 +613,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -651,11 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,145 +668,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1606,7 +1609,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1670,61 +1673,67 @@
         <v>1001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3"/>
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4"/>
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="getInstanceSnapList" sheetId="31" r:id="rId4"/>
     <sheet name="getCloudDiskSnapList" sheetId="32" r:id="rId5"/>
     <sheet name="restoreInstanceSnap" sheetId="35" r:id="rId6"/>
+    <sheet name="deleteInstanceSnap" sheetId="36" r:id="rId7"/>
+    <sheet name="searchInstanceSnap" sheetId="37" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
   <si>
     <t>test_num</t>
   </si>
@@ -171,16 +173,31 @@
     "snapshot_name":"SysAndPartDiskSnap"
 }</t>
   </si>
+  <si>
+    <t>删除云组件快照-缺少token</t>
+  </si>
+  <si>
+    <t>删除云组件快照-成功</t>
+  </si>
+  <si>
+    <t>查询云组件快照-缺少token</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>查询云组件快照-成功</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -206,6 +223,120 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,126 +351,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -362,13 +379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +469,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,139 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +582,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -580,11 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,26 +626,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +645,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,17 +671,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,145 +685,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1358,7 +1375,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1608,8 +1625,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1740,4 +1757,159 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
@@ -15,13 +15,18 @@
     <sheet name="restoreInstanceSnap" sheetId="35" r:id="rId6"/>
     <sheet name="deleteInstanceSnap" sheetId="36" r:id="rId7"/>
     <sheet name="searchInstanceSnap" sheetId="37" r:id="rId8"/>
+    <sheet name="getInstanceSnapDetails" sheetId="38" r:id="rId9"/>
+    <sheet name="restoreCloudDiskSnap" sheetId="39" r:id="rId10"/>
+    <sheet name="deleteCloudDiskSnap" sheetId="40" r:id="rId11"/>
+    <sheet name="putCloudDiskSnap" sheetId="41" r:id="rId12"/>
+    <sheet name="searchCloudDiskSnap" sheetId="42" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
   <si>
     <t>test_num</t>
   </si>
@@ -183,10 +188,234 @@
     <t>查询云组件快照-缺少token</t>
   </si>
   <si>
+    <t>{
+    "pag":"1",
+    "size":"10",
+    "search_field":"snapshot_name",
+    "search":"snap"
+}</t>
+  </si>
+  <si>
+    <t>查询云组件快照-成功</t>
+  </si>
+  <si>
+    <t>查询云组件快照详情-缺少token</t>
+  </si>
+  <si>
     <t>{}</t>
   </si>
   <si>
-    <t>查询云组件快照-成功</t>
+    <t>查询云组件快照详情-成功</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>回滚云硬盘快照-缺少token</t>
+  </si>
+  <si>
+    <t>回滚云硬盘快照-project_id为空</t>
+  </si>
+  <si>
+    <t>{
+    "project_id":"",
+    "project_name":"HJp0_hash"
+}</t>
+  </si>
+  <si>
+    <t>服务端project_id和project_name非必填</t>
+  </si>
+  <si>
+    <t>回滚云硬盘快照-project_name为空</t>
+  </si>
+  <si>
+    <t>{
+    "project_id":"c732c22666064375904c357bbecfeb1a",
+    "project_name":""
+}</t>
+  </si>
+  <si>
+    <t>回滚云硬盘快照-成功</t>
+  </si>
+  <si>
+    <t>删除云硬盘快照-缺少token</t>
+  </si>
+  <si>
+    <t>{
+    "ids":[
+        "f9cfdfb4-6ce7-4530-9f78-d435f58d521c"
+    ],
+    "project_id":"c732c22666064375904c357bbecfeb1a",
+    "project_name":"HJp0_hash"
+}</t>
+  </si>
+  <si>
+    <t>删除云硬盘快照-云硬盘快照ids为空</t>
+  </si>
+  <si>
+    <t>{
+    "ids":[],
+    "project_id":"c732c22666064375904c357bbecfeb1a",
+    "project_name":"HJp0_hash"
+}</t>
+  </si>
+  <si>
+    <t>{'ids': ['Ensure this field has at least 1 elements.']}</t>
+  </si>
+  <si>
+    <t>删除云硬盘快照-project_id为空</t>
+  </si>
+  <si>
+    <t>{
+    "ids":[
+        "f9cfdfb4-6ce7-4530-9f78-d435f58d521c"
+    ],
+    "project_id":"",
+    "project_name":"HJp0_hash"
+}</t>
+  </si>
+  <si>
+    <t>删除云硬盘快照-project_name为空</t>
+  </si>
+  <si>
+    <t>{
+    "ids":[
+        "f9cfdfb4-6ce7-4530-9f78-d435f58d521c"
+    ],
+    "project_id":"c732c22666064375904c357bbecfeb1a",
+    "project_name":""
+}</t>
+  </si>
+  <si>
+    <t>删除云硬盘快照-云硬盘快照删除成功</t>
+  </si>
+  <si>
+    <t>{
+    "ids":[
+        "f9cfdfb4-6ce9-4530-9aa8-d435f58da21c"
+    ],
+    "project_id":"c732c22666064375904c357bbecfeb1a",
+    "project_name":"HJp0_hash"
+}</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>删除云硬盘快照-云硬盘快照ids不存在</t>
+  </si>
+  <si>
+    <t>云硬盘快照不存在</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-缺少token</t>
+  </si>
+  <si>
+    <t>{
+    "name":"cdSanp2"
+}</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-云硬盘id不存在</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-name为空</t>
+  </si>
+  <si>
+    <t>{
+    "name":""
+}</t>
+  </si>
+  <si>
+    <t>{'name': ['该字段不能为空。']}</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-name大于32个字符</t>
+  </si>
+  <si>
+    <t>{
+    "name":"aaaaabbbbbaaaaabbbbbaaaaabbbbb12345"
+}</t>
+  </si>
+  <si>
+    <t>快照名称过长</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-name为中文</t>
+  </si>
+  <si>
+    <t>{
+    "name":"中文名称云硬盘快照"
+}</t>
+  </si>
+  <si>
+    <t>快照名称只能输入数字、字母、-、_, 只允许以英文开头</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-name为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+    "name":"……&amp;……&amp;%……%"
+}</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-name以数字开头</t>
+  </si>
+  <si>
+    <t>{
+    "name":"11112222"
+}</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-name以下划线开头</t>
+  </si>
+  <si>
+    <t>{
+    "name":"__asdada"
+}</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-name以短横线开头</t>
+  </si>
+  <si>
+    <t>{
+    "name":"--asdada"
+}</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>编辑云硬盘快照-合规name编辑成功</t>
+  </si>
+  <si>
+    <t>{
+    "name":"SnapNameUp-1_success"
+}</t>
+  </si>
+  <si>
+    <t>搜索云硬盘快照-缺少token</t>
+  </si>
+  <si>
+    <t>{
+    "pag":"1",
+    "size":"10",
+    "search_field":"name",
+    "search":"d"
+}</t>
+  </si>
+  <si>
+    <t>搜索云硬盘快照</t>
   </si>
 </sst>
 </file>
@@ -194,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -228,6 +457,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -235,8 +494,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -250,38 +525,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,46 +559,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,19 +574,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -379,25 +608,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,151 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +836,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -617,30 +870,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,8 +903,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,135 +926,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -848,6 +1077,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1272,6 +1504,646 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="54" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="54" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="121.5" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="94.5" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="121.5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="121.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="121.5" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2">
+        <v>214006</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2">
+        <v>214006</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2">
+        <v>214022</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="81" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1626,7 +2498,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1828,7 +2700,6 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3"/>
     </row>
   </sheetData>
@@ -1843,7 +2714,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1873,15 +2744,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" s="2" customFormat="1" ht="81" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="81" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -1898,10 +2846,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>

--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="101">
   <si>
     <t>test_num</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>查看云硬盘快照列表</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>回滚云组件快照-缺少token</t>
@@ -150,6 +153,9 @@
     "volumes_name":[],
     "snapshot_name":"SysAndPartDiskSnap"
 }</t>
+  </si>
+  <si>
+    <t>PANACUBE4-1703</t>
   </si>
   <si>
     <t>004</t>
@@ -208,9 +214,6 @@
     <t>查询云组件快照详情-成功</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>回滚云硬盘快照-缺少token</t>
   </si>
   <si>
@@ -319,6 +322,9 @@
     <t>编辑云硬盘快照-云硬盘id不存在</t>
   </si>
   <si>
+    <t>PANACUBE4-1355</t>
+  </si>
+  <si>
     <t>编辑云硬盘快照-name为空</t>
   </si>
   <si>
@@ -423,12 +429,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +444,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,19 +470,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,16 +494,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,6 +519,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,16 +554,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -549,15 +578,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -566,7 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,19 +615,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,163 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,11 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,56 +850,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,8 +872,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,7 +939,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,126 +948,126 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1079,8 +1092,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1541,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
@@ -1549,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1569,20 +1586,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="54" spans="1:7">
@@ -1590,36 +1606,34 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5"/>
     </row>
   </sheetData>
@@ -1669,10 +1683,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -1689,16 +1703,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>60</v>
+      <c r="E3" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1709,74 +1723,71 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="121.5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D7" s="2">
         <v>214006</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1791,20 +1802,20 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,6 +1833,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="40.5" spans="1:6">
@@ -1829,10 +1843,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -1844,24 +1858,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:6">
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D3" s="2">
         <v>214006</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="40.5" spans="1:6">
@@ -1869,134 +1886,134 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2">
         <v>214022</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>214020</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2">
         <v>214020</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2">
         <v>214020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" ht="40.5" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2">
         <v>214020</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2">
         <v>214020</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2049,10 +2066,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -2069,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2083,40 +2100,30 @@
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="F4"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
       <c r="F5"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
       <c r="F6"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
       <c r="F7"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:5">
@@ -2495,20 +2502,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2526,6 +2533,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
@@ -2533,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -2553,56 +2563,59 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
+    <row r="4" s="2" customFormat="1" ht="81" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -2610,13 +2623,13 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2672,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -2692,7 +2705,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -2713,8 +2726,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2749,10 +2762,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -2769,10 +2782,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2826,10 +2839,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -2846,10 +2859,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>

--- a/datafiles/snapsMagData.xlsx
+++ b/datafiles/snapsMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="4" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="getPoolSnapList" sheetId="30" r:id="rId1"/>
@@ -429,9 +429,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -457,14 +457,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,21 +518,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,9 +538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,16 +554,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,45 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,7 +594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,49 +615,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,30 +711,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -711,91 +729,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,6 +839,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -872,8 +907,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,42 +917,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1805,7 +1805,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2156,8 +2156,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2504,8 +2504,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
